--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\quan-ly-thuoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A872863B-18FC-41B7-B334-82EB5B7FB3E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751130D4-50D2-4234-A49F-FCDF380B9FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\quan-ly-thuoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751130D4-50D2-4234-A49F-FCDF380B9FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE3A5D-8660-4108-8AB1-88878C969FB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,48 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>ThuocDemo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Ab</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Square</t>
-  </si>
-  <si>
-    <t>Io</t>
-  </si>
-  <si>
-    <t>ThuocDemo2</t>
-  </si>
-  <si>
-    <t>Blue</t>
+    <t>demoMed</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ma tuy</t>
+  </si>
+  <si>
+    <t>Green</t>
   </si>
   <si>
     <t>Round</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>NOtTHuoc</t>
-  </si>
-  <si>
-    <t>NOT A COLOR</t>
-  </si>
-  <si>
-    <t>NOT A SHAPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,38 +367,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
       <c r="D1">
         <v>1.5</v>
       </c>
       <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
         <v>100</v>
-      </c>
-      <c r="F1">
-        <v>120</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -418,9 +401,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -428,46 +411,20 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1.2</v>
       </c>
-      <c r="E2">
-        <v>144</v>
-      </c>
-      <c r="F2">
-        <v>124</v>
+      <c r="E2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>165.0</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>241</v>
-      </c>
-      <c r="E3">
-        <v>121</v>
-      </c>
-      <c r="F3">
-        <v>51616</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Ab</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>MX-t11</t>
+  </si>
+  <si>
+    <t>Panadol</t>
+  </si>
+  <si>
+    <t>Yellowish</t>
+  </si>
+  <si>
+    <t>Nein</t>
   </si>
 </sst>
 </file>
@@ -367,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -376,8 +388,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="n">
+        <v>1.0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -385,14 +397,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="n">
         <v>1.5</v>
       </c>
-      <c r="E1">
-        <v>10</v>
-      </c>
-      <c r="F1">
-        <v>100</v>
+      <c r="E1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>114.0</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -425,6 +437,32 @@
       </c>
       <c r="H2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -418,50 +418,24 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="E2" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="F2" t="n">
-        <v>165.0</v>
+        <v>266.0</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E3" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>266.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="12">
   <si>
     <t>Ab</t>
   </si>
@@ -404,7 +404,7 @@
         <v>10.0</v>
       </c>
       <c r="F1" t="n">
-        <v>114.0</v>
+        <v>282.0</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -456,7 +456,7 @@
         <v>14.0</v>
       </c>
       <c r="F3" t="n">
-        <v>266.0</v>
+        <v>1994.0</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Ab</t>
   </si>
@@ -404,7 +404,7 @@
         <v>10.0</v>
       </c>
       <c r="F1" t="n">
-        <v>114.0</v>
+        <v>156.0</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -430,7 +430,7 @@
         <v>14.0</v>
       </c>
       <c r="F2" t="n">
-        <v>266.0</v>
+        <v>698.0</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
   <si>
     <t>Ab</t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>Nein</t>
+  </si>
+  <si>
+    <t>Abxx</t>
+  </si>
+  <si>
+    <t>demoMednew</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>mai thuy</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>tron</t>
+  </si>
+  <si>
+    <t>hmm</t>
+  </si>
+  <si>
+    <t>thuoc te</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>vuong</t>
   </si>
 </sst>
 </file>
@@ -379,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -387,30 +417,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="n">
         <v>1.0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="E1" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="F1" t="n">
-        <v>282.0</v>
+        <v>2570.0</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -418,51 +448,77 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="F2" t="n">
-        <v>165.0</v>
+        <v>310.0</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
       <c r="E3" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1994.0</v>
+        <v>40.0</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="33">
   <si>
     <t>Ab</t>
   </si>
@@ -91,6 +91,39 @@
   </si>
   <si>
     <t>vuong</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>NewMed</t>
+  </si>
+  <si>
+    <t>Panadolextra</t>
+  </si>
+  <si>
+    <t>ssfdsf</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>sfsdf</t>
+  </si>
+  <si>
+    <t>sdgsdfgsfsdf</t>
+  </si>
+  <si>
+    <t>fsadasd</t>
+  </si>
+  <si>
+    <t>dg</t>
+  </si>
+  <si>
+    <t>dsgsdg</t>
   </si>
 </sst>
 </file>
@@ -409,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -425,7 +458,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D1" t="n">
         <v>1.9</v>
@@ -434,7 +467,7 @@
         <v>14.0</v>
       </c>
       <c r="F1" t="n">
-        <v>2570.0</v>
+        <v>3434.0</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -445,28 +478,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
-      </c>
       <c r="E2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>310.0</v>
+        <v>40.0</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +507,10 @@
         <v>-1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
         <v>1.0</v>
@@ -486,39 +519,117 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>40.0</v>
+        <v>400.0</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3080.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>1.0</v>
       </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3080.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\quan-ly-thuoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE3A5D-8660-4108-8AB1-88878C969FB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D986357F-3BF0-4868-9C5E-310343DA4CAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
-  <si>
-    <t>Ab</t>
-  </si>
-  <si>
-    <t>demoMed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>red</t>
   </si>
@@ -39,18 +33,6 @@
     <t>shape</t>
   </si>
   <si>
-    <t>Rx</t>
-  </si>
-  <si>
-    <t>Ma tuy</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
     <t>MX-t11</t>
   </si>
   <si>
@@ -67,37 +49,12 @@
   </si>
   <si>
     <t>demoMednew</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>mai thuy</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>tron</t>
-  </si>
-  <si>
-    <t>hmm</t>
-  </si>
-  <si>
-    <t>thuoc te</t>
-  </si>
-  <si>
-    <t>tim</t>
-  </si>
-  <si>
-    <t>vuong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,116 +366,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1.0</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1">
         <v>1.9</v>
       </c>
-      <c r="E1" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F1" t="n">
-        <v>2570.0</v>
+      <c r="E1">
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <v>2570</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1.5</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>310.0</v>
+      <c r="F2">
+        <v>310</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\quan-ly-thuoc\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>red</t>
   </si>
@@ -49,12 +49,28 @@
   </si>
   <si>
     <t>demoMednew</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>xjccx</t>
+  </si>
+  <si>
+    <t>aiojfc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -401,29 +417,55 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1.5</v>
-      </c>
-      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>310</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>red</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>aiojfc</t>
+  </si>
+  <si>
+    <t>Tiffey</t>
   </si>
 </sst>
 </file>
@@ -391,29 +394,29 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="n">
+        <v>0.0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>1.9</v>
-      </c>
-      <c r="E1">
-        <v>14</v>
-      </c>
-      <c r="F1">
-        <v>2570</v>
+        <v>13</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>12.0</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -433,7 +436,7 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.0</v>
+        <v>33.0</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\quan-ly-thuoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D986357F-3BF0-4868-9C5E-310343DA4CAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE3A5D-8660-4108-8AB1-88878C969FB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>demoMed</t>
+  </si>
   <si>
     <t>red</t>
   </si>
@@ -33,37 +39,25 @@
     <t>shape</t>
   </si>
   <si>
-    <t>MX-t11</t>
-  </si>
-  <si>
-    <t>Panadol</t>
-  </si>
-  <si>
-    <t>Yellowish</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
-    <t>Abxx</t>
-  </si>
-  <si>
-    <t>demoMednew</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>rd</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>xjccx</t>
-  </si>
-  <si>
-    <t>aiojfc</t>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ma tuy</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>đỏ</t>
+  </si>
+  <si>
+    <t>hơi tròn</t>
   </si>
 </sst>
 </file>
@@ -382,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,76 +389,50 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1.5</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
-        <v>1.9</v>
-      </c>
-      <c r="E1">
-        <v>14</v>
-      </c>
-      <c r="F1">
-        <v>2570</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.0</v>
+        <v>225.0</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\quan-ly-thuoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D986357F-3BF0-4868-9C5E-310343DA4CAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0711E-BDBF-4C7E-9FF0-99266B8C62DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5928" yWindow="900" windowWidth="12804" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,32 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>MX-t11</t>
   </si>
   <si>
-    <t>Panadol</t>
-  </si>
-  <si>
-    <t>Yellowish</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
     <t>Abxx</t>
   </si>
   <si>
-    <t>demoMednew</t>
-  </si>
-  <si>
     <t>ss</t>
   </si>
   <si>
@@ -67,13 +49,18 @@
   </si>
   <si>
     <t>Tiffey</t>
+  </si>
+  <si>
+    <t>Trắng</t>
+  </si>
+  <si>
+    <t>Elip (viên)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,87 +375,87 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="n">
-        <v>0.0</v>
+      <c r="A1">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F1" t="n">
-        <v>12.0</v>
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>1.2</v>
+      </c>
+      <c r="E1">
+        <v>12</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="n">
-        <v>1.0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12.0</v>
-      </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\quan-ly-thuoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\quan-ly-thuoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0711E-BDBF-4C7E-9FF0-99266B8C62DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC9EBE5-B71C-491F-BD8E-A6B13555483E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5928" yWindow="900" windowWidth="12804" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,29 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t>MX-t11</t>
   </si>
   <si>
-    <t>Abxx</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>rd</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>xjccx</t>
-  </si>
-  <si>
-    <t>aiojfc</t>
-  </si>
-  <si>
     <t>Tiffey</t>
   </si>
   <si>
@@ -55,16 +37,88 @@
   </si>
   <si>
     <t>Elip (viên)</t>
+  </si>
+  <si>
+    <t>Panadol</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>Lidocaine</t>
+  </si>
+  <si>
+    <t>MX-25</t>
+  </si>
+  <si>
+    <t>MX-47</t>
+  </si>
+  <si>
+    <t>MX-18</t>
+  </si>
+  <si>
+    <t>Con nhộng</t>
+  </si>
+  <si>
+    <t>Viên tròn</t>
+  </si>
+  <si>
+    <t>Đỏ</t>
+  </si>
+  <si>
+    <t>Xanh</t>
+  </si>
+  <si>
+    <t>Vàng</t>
+  </si>
+  <si>
+    <t>Dung dịch</t>
+  </si>
+  <si>
+    <t>MX-15</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
+    <t>Tím</t>
+  </si>
+  <si>
+    <t>MX-100</t>
+  </si>
+  <si>
+    <t>Berberin</t>
+  </si>
+  <si>
+    <t>vàng nhạt</t>
+  </si>
+  <si>
+    <t>tròn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +141,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,13 +429,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" customWidth="true" width="16.21875" collapsed="false"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -388,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>1.2</v>
@@ -400,65 +460,196 @@
         <v>50</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
+      <c r="D4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\quan-ly-thuoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\quan-ly-thuoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC9EBE5-B71C-491F-BD8E-A6B13555483E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D0711E-BDBF-4C7E-9FF0-99266B8C62DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5928" yWindow="900" windowWidth="12804" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,11 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>MX-t11</t>
   </si>
   <si>
+    <t>Abxx</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>xjccx</t>
+  </si>
+  <si>
+    <t>aiojfc</t>
+  </si>
+  <si>
     <t>Tiffey</t>
   </si>
   <si>
@@ -37,88 +55,16 @@
   </si>
   <si>
     <t>Elip (viên)</t>
-  </si>
-  <si>
-    <t>Panadol</t>
-  </si>
-  <si>
-    <t>Paracetamol</t>
-  </si>
-  <si>
-    <t>Lidocaine</t>
-  </si>
-  <si>
-    <t>MX-25</t>
-  </si>
-  <si>
-    <t>MX-47</t>
-  </si>
-  <si>
-    <t>MX-18</t>
-  </si>
-  <si>
-    <t>Con nhộng</t>
-  </si>
-  <si>
-    <t>Viên tròn</t>
-  </si>
-  <si>
-    <t>Đỏ</t>
-  </si>
-  <si>
-    <t>Xanh</t>
-  </si>
-  <si>
-    <t>Vàng</t>
-  </si>
-  <si>
-    <t>Dung dịch</t>
-  </si>
-  <si>
-    <t>MX-15</t>
-  </si>
-  <si>
-    <t>Aspirin</t>
-  </si>
-  <si>
-    <t>Tím</t>
-  </si>
-  <si>
-    <t>MX-100</t>
-  </si>
-  <si>
-    <t>Berberin</t>
-  </si>
-  <si>
-    <t>vàng nhạt</t>
-  </si>
-  <si>
-    <t>tròn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,16 +87,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,16 +372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" customWidth="true" width="16.21875" collapsed="false"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -448,7 +388,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1">
         <v>1.2</v>
@@ -460,196 +400,65 @@
         <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="n">
-        <v>-1.0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="n">
-        <v>1.0</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40.0</v>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>